--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32416-d10190605-Reviews-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Holiday-Inn-Express-Fullerton-Anaheim.h14909642.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,292 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r582004030-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>32416</t>
+  </si>
+  <si>
+    <t>10190605</t>
+  </si>
+  <si>
+    <t>582004030</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>charged us 500 dollars</t>
+  </si>
+  <si>
+    <t>Recently stayed at thiw hotel. During the visit the shower door came out of the track. It fell into the shower. I didn't see any damage so I put it back in the track and left. They withheld 500 dollars from my credit card stating that I caused damage to their hotel and absolutely refused to refund it. I got IHG involved and they said there is nothing they can do. Avoid this hotel at all costs.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r572513825-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>572513825</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Wonderful staff!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly renovated and in great shape. Two people stand out for great service, the manager Tristan, always there during the day greeting everyone. The second is Lourdes, super friendly and great service. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r572348749-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>572348749</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean and the staff were friendly and very helpful. The complimentary breakfast was always hot and fresh. This hotel is located next to a lot of restaurants and stores and is a quick drive to the Disney area. I would definitely stay here again and recommend this hotel to everyone! There is also onsite laundry and free parking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r560945411-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>560945411</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Great hotel ... Tristan went above and  beyond ...</t>
+  </si>
+  <si>
+    <t>This is a great property ... extremely clean ... good location.Right next to the 91 ... but not far from the 57 and the 5 freeway.It felt extremely safe .... lots of security measures in place.There was a fridge and micro in room.The only "con" was that the water pressure was not great .. but, I was on the top 7th floor.The bed was comfortable ... the a/c-heat unit worked great.There was lots of counter space in the bathroom.Did I say clean?  : -)Clean, clean, clean --- awesome!I would stay again!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r536486016-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>536486016</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Attractive and modern</t>
+  </si>
+  <si>
+    <t>This HIX location is a clean, modern facility.
+It has seven floors and one elevator.
+The elevator is clean, spacious, fast, and is
+equipped with state of the art controls.
+The front porch of the entrance has attractive
+blue accent lights and the interior hallways
+are brightly lit.  The lobby area is both 
+functional and attractive.
+The entire staff was friendly and accommodating.
+The air in the corridors does have a slight
+dusty smell, as mentioned by another reviewer.
+It is probably due to the construction project
+underway on the first floor.
+The room itself was large, with a work desk and
+an ergonomic office chair.  The room had indirect
+lighting fixtures which created a very pleasant
+atmosphere. However, there was no ceiling fixture,
+so the two lamps were the only general lighting.
+There were sufficient electrical outlets.
+The door locks use state of the art proximity cards,
+the bathroom light turns on automatically when you
+enter, and the desk light turns on with a tap.
+The wardrobe doors had self-close hinges that close
+effortlessly and silently.
+The bathroom sink has a huge amount of counter space,
+the bathroom mirror is large, and
+the bathroom lighting is bright.
+The food at the breakfast bar was good, and the
+attendants were friendly and did a good job.
+There were bottles of catsup and Tabasco sauce
+on each table, which was a nice touch.
+There were also salt and pepper shakers
+but...This HIX location is a clean, modern facility.It has seven floors and one elevator.The elevator is clean, spacious, fast, and isequipped with state of the art controls.The front porch of the entrance has attractiveblue accent lights and the interior hallwaysare brightly lit.  The lobby area is both functional and attractive.The entire staff was friendly and accommodating.The air in the corridors does have a slightdusty smell, as mentioned by another reviewer.It is probably due to the construction projectunderway on the first floor.The room itself was large, with a work desk andan ergonomic office chair.  The room had indirectlighting fixtures which created a very pleasantatmosphere. However, there was no ceiling fixture,so the two lamps were the only general lighting.There were sufficient electrical outlets.The door locks use state of the art proximity cards,the bathroom light turns on automatically when youenter, and the desk light turns on with a tap.The wardrobe doors had self-close hinges that closeeffortlessly and silently.The bathroom sink has a huge amount of counter space,the bathroom mirror is large, andthe bathroom lighting is bright.The food at the breakfast bar was good, and theattendants were friendly and did a good job.There were bottles of catsup and Tabasco sauceon each table, which was a nice touch.There were also salt and pepper shakersbut they used the wrong kind of pepper andthe grains of pepper were too large to shakeout of the holes in the lid.They had a large, wide-mouth trash can next tothe coffee and another in the dining room,which made it easy to dispose of trash.There were two large garage door type closuresseparating the food area from the dining area.This allowed the food area to be sealed offwhen breakfast is closed, and presents a solidwall in the dining/coffee area.  I have neverseen this arrangement before but is isimmensely practical.  Another example of howmodern this HIX location is.This HIX shares a parking lot with the adjacentHoward Johnsons, which is not very flexible aboutparking.  Be sure you park on the correct sideof some imaginary line between the two hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>This HIX location is a clean, modern facility.
+It has seven floors and one elevator.
+The elevator is clean, spacious, fast, and is
+equipped with state of the art controls.
+The front porch of the entrance has attractive
+blue accent lights and the interior hallways
+are brightly lit.  The lobby area is both 
+functional and attractive.
+The entire staff was friendly and accommodating.
+The air in the corridors does have a slight
+dusty smell, as mentioned by another reviewer.
+It is probably due to the construction project
+underway on the first floor.
+The room itself was large, with a work desk and
+an ergonomic office chair.  The room had indirect
+lighting fixtures which created a very pleasant
+atmosphere. However, there was no ceiling fixture,
+so the two lamps were the only general lighting.
+There were sufficient electrical outlets.
+The door locks use state of the art proximity cards,
+the bathroom light turns on automatically when you
+enter, and the desk light turns on with a tap.
+The wardrobe doors had self-close hinges that close
+effortlessly and silently.
+The bathroom sink has a huge amount of counter space,
+the bathroom mirror is large, and
+the bathroom lighting is bright.
+The food at the breakfast bar was good, and the
+attendants were friendly and did a good job.
+There were bottles of catsup and Tabasco sauce
+on each table, which was a nice touch.
+There were also salt and pepper shakers
+but...This HIX location is a clean, modern facility.It has seven floors and one elevator.The elevator is clean, spacious, fast, and isequipped with state of the art controls.The front porch of the entrance has attractiveblue accent lights and the interior hallwaysare brightly lit.  The lobby area is both functional and attractive.The entire staff was friendly and accommodating.The air in the corridors does have a slightdusty smell, as mentioned by another reviewer.It is probably due to the construction projectunderway on the first floor.The room itself was large, with a work desk andan ergonomic office chair.  The room had indirectlighting fixtures which created a very pleasantatmosphere. However, there was no ceiling fixture,so the two lamps were the only general lighting.There were sufficient electrical outlets.The door locks use state of the art proximity cards,the bathroom light turns on automatically when youenter, and the desk light turns on with a tap.The wardrobe doors had self-close hinges that closeeffortlessly and silently.The bathroom sink has a huge amount of counter space,the bathroom mirror is large, andthe bathroom lighting is bright.The food at the breakfast bar was good, and theattendants were friendly and did a good job.There were bottles of catsup and Tabasco sauceon each table, which was a nice touch.There were also salt and pepper shakersbut they used the wrong kind of pepper andthe grains of pepper were too large to shakeout of the holes in the lid.They had a large, wide-mouth trash can next tothe coffee and another in the dining room,which made it easy to dispose of trash.There were two large garage door type closuresseparating the food area from the dining area.This allowed the food area to be sealed offwhen breakfast is closed, and presents a solidwall in the dining/coffee area.  I have neverseen this arrangement before but is isimmensely practical.  Another example of howmodern this HIX location is.This HIX shares a parking lot with the adjacentHoward Johnsons, which is not very flexible aboutparking.  Be sure you park on the correct sideof some imaginary line between the two hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r534427502-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>534427502</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Nice and new</t>
+  </si>
+  <si>
+    <t>Very nice location close to Disneyland and shopping centers including cosco.  Free shuttle to Disneyland, saves on $20 parking.  Better than average Hot Breakfast, most days had scrambled eggs, crisp bacon, sausages, biscuit and gravy.  Also yogurt, hard boiled eggs, cereal and warm cinnamon rolls. Weekends will be extra busy with young kids.  Request a quiet floor if needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r510638543-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>510638543</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Close to Disneyland and Knott's Berry Farm, located in a good area of Orange County</t>
+  </si>
+  <si>
+    <t>Great location for access for everything in Orange County,  the 91 freeway close to the I5 and CA55 gave me access to Disneyland, New Port Beach, and Knott's Berry Farm.  The staff facilities were great!  I will stay here again!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r508545129-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>508545129</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for Disney stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came in on a quick trip to stay before we went to Disney. We were greeted well and hosted well. The lobby and rooms have recently been redone and were very comfortable and welcoming. Kids thought the pool was fun. Beds were very comfortable. FREE SHUTTLE TO DISNEY Free parking. Great breakfast. (Pancake maker!)Easy walk to Inn-N-Out, Marshall's, Sprouts and more. We would definitely stay here again and highly recommend. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r504764662-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>504764662</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great last minute choice! </t>
+  </si>
+  <si>
+    <t>We came for some softball games and after searching for a few days on every travel app I had. I literally chose this place just a few hours before we made the drive. It was the best deal I could find that met my picky needs. (Room photos, free parking, free breakfast and location -15mile radius was my max)
+Checking in / stay :
+We checked in around 9pm after our finishing our games. There's like 2 hotels side by side and I think there was a wedding reception or something so it took a minute for parking but we found a spot. We were greeted by the gentleman who checked us in. I feel horrible I forgot his name. Very friendly! Check in was easy and smooth. Lobby was bright and clean! 
+Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in...We came for some softball games and after searching for a few days on every travel app I had. I literally chose this place just a few hours before we made the drive. It was the best deal I could find that met my picky needs. (Room photos, free parking, free breakfast and location -15mile radius was my max)Checking in / stay :We checked in around 9pm after our finishing our games. There's like 2 hotels side by side and I think there was a wedding reception or something so it took a minute for parking but we found a spot. We were greeted by the gentleman who checked us in. I feel horrible I forgot his name. Very friendly! Check in was easy and smooth. Lobby was bright and clean! Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in the room was handles on the closet door but not a big deal to me.Kids went swimming for the last 30min pool was open. Pool area was clean, water was a nice temperature. It was next to the other hotels pool as well. Checkout / Breakfast:We had an early checkout due to game time but the morning guy at counter was just as pleasant! He even suggested we take some walnuts to go for my daughter for energy. It's not a cook to order breakfast but it's better than just wrapped danishes. They actually had cooked food in a warmer, pancake station, cereal, nice looking ripe fruit, assorted bread/bagels that you could toast and a fridge with yogurt and boiled eggs. Free!!! If you don't mind the surrounding noise then I would highly recommend this place. (We did hear what I think was fireworks. It's close to the highway and in a busy area). If you need a quiet place to sleep then definitely keep looking. Overall....clean, bright, felt safe, great staff, comfy, price was reasonable and would come back again if needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>We came for some softball games and after searching for a few days on every travel app I had. I literally chose this place just a few hours before we made the drive. It was the best deal I could find that met my picky needs. (Room photos, free parking, free breakfast and location -15mile radius was my max)
+Checking in / stay :
+We checked in around 9pm after our finishing our games. There's like 2 hotels side by side and I think there was a wedding reception or something so it took a minute for parking but we found a spot. We were greeted by the gentleman who checked us in. I feel horrible I forgot his name. Very friendly! Check in was easy and smooth. Lobby was bright and clean! 
+Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in...We came for some softball games and after searching for a few days on every travel app I had. I literally chose this place just a few hours before we made the drive. It was the best deal I could find that met my picky needs. (Room photos, free parking, free breakfast and location -15mile radius was my max)Checking in / stay :We checked in around 9pm after our finishing our games. There's like 2 hotels side by side and I think there was a wedding reception or something so it took a minute for parking but we found a spot. We were greeted by the gentleman who checked us in. I feel horrible I forgot his name. Very friendly! Check in was easy and smooth. Lobby was bright and clean! Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in the room was handles on the closet door but not a big deal to me.Kids went swimming for the last 30min pool was open. Pool area was clean, water was a nice temperature. It was next to the other hotels pool as well. Checkout / Breakfast:We had an early checkout due to game time but the morning guy at counter was just as pleasant! He even suggested we take some walnuts to go for my daughter for energy. It's not a cook to order breakfast but it's better than just wrapped danishes. They actually had cooked food in a warmer, pancake station, cereal, nice looking ripe fruit, assorted bread/bagels that you could toast and a fridge with yogurt and boiled eggs. Free!!! If you don't mind the surrounding noise then I would highly recommend this place. (We did hear what I think was fireworks. It's close to the highway and in a busy area). If you need a quiet place to sleep then definitely keep looking. Overall....clean, bright, felt safe, great staff, comfy, price was reasonable and would come back again if needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r503234431-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>503234431</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We came for a softball tourney. We spent many days researching and comparing hotels in the area. We ended up only needing one night stay. We were won over on the phone setting up a block of rooms with Kent, the hotel manager. Check-in was great! Kent was also there to make sure it went smooth. Even offered a one room upgrade and dinner information. Fast and easy. It's a new hotel, and the building and furnishings were excellent. We stayed at the top floor (7 floors) and were awarded the King Suite. VERY IMPRESSIVE. Two rooms, nice setup with plenty of room, and a comfortable pullout couch. Large balcony! We were able to invite the rest of the team to eat in the "living room" and watch the Disneyland fireworks from the balcony! The king bed was new and comfy. It was a GREAT stay! The breakfast? Better than most. Hot bacon, scrambled eggs, cheese omelets, pancakes, oatmeal, turkey sausage, cereal, plenty of choices! The best thing about everything? Cleanliness. CLEAN CLEAN CLEAN. We had no noise issues from the freeway. Also, we were allowed to use Howard Johnsons pool next door (adjacent hotel).MoreShow less</t>
+  </si>
+  <si>
+    <t>We came for a softball tourney. We spent many days researching and comparing hotels in the area. We ended up only needing one night stay. We were won over on the phone setting up a block of rooms with Kent, the hotel manager. Check-in was great! Kent was also there to make sure it went smooth. Even offered a one room upgrade and dinner information. Fast and easy. It's a new hotel, and the building and furnishings were excellent. We stayed at the top floor (7 floors) and were awarded the King Suite. VERY IMPRESSIVE. Two rooms, nice setup with plenty of room, and a comfortable pullout couch. Large balcony! We were able to invite the rest of the team to eat in the "living room" and watch the Disneyland fireworks from the balcony! The king bed was new and comfy. It was a GREAT stay! The breakfast? Better than most. Hot bacon, scrambled eggs, cheese omelets, pancakes, oatmeal, turkey sausage, cereal, plenty of choices! The best thing about everything? Cleanliness. CLEAN CLEAN CLEAN. We had no noise issues from the freeway. Also, we were allowed to use Howard Johnsons pool next door (adjacent hotel).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r496180921-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>496180921</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel, some issues</t>
+  </si>
+  <si>
+    <t>Chose this hotel for one night as we are IHG elite members and we were in the Fullerton area for the day. Confusing checking in. Saw the large Holiday Inn Express sign on the building but all the signage was for Howard Johnson's. Security guard in parking lot directed us to the check-in lobby. Turned out it was for Howard Johnson's. The Holiday Inn Express check-in was next door, 8 ft away.  Turns out the Holiday Inn Express just opened 2 weeks ago and is owned by the same owner as the Howard Johnson's next door and it used to be part of the Howard Johnson's. We were impressed by the king suite we received on the top floor. It was a mini-apartment, had two rooms and a long balcony which overlooked all of south Orange County, even Disneyland which we were able to watch their fireworks show from. It also overlooked the 91 freeway, which presented big issues when trying to sleep.  The room decor was very modern which was a nice change from other hotels with old-fashioned dreary furnishings. It took a long time for the hot water to develop, but I believe we may have been the first guests to accommodate the room as the next morning we didn't have any problems and the water pressure was fine. Wi-fi was nonexistent though. Could've been because we were right next to the elevator.  The beds and pillows were...Chose this hotel for one night as we are IHG elite members and we were in the Fullerton area for the day. Confusing checking in. Saw the large Holiday Inn Express sign on the building but all the signage was for Howard Johnson's. Security guard in parking lot directed us to the check-in lobby. Turned out it was for Howard Johnson's. The Holiday Inn Express check-in was next door, 8 ft away.  Turns out the Holiday Inn Express just opened 2 weeks ago and is owned by the same owner as the Howard Johnson's next door and it used to be part of the Howard Johnson's. We were impressed by the king suite we received on the top floor. It was a mini-apartment, had two rooms and a long balcony which overlooked all of south Orange County, even Disneyland which we were able to watch their fireworks show from. It also overlooked the 91 freeway, which presented big issues when trying to sleep.  The room decor was very modern which was a nice change from other hotels with old-fashioned dreary furnishings. It took a long time for the hot water to develop, but I believe we may have been the first guests to accommodate the room as the next morning we didn't have any problems and the water pressure was fine. Wi-fi was nonexistent though. Could've been because we were right next to the elevator.  The beds and pillows were very comfortable, the breakfast better than any other Holiday Inn Express I've stayed in- fresh scrambled eggs, bacon, turkey sausage, pancakes, cereal, fruit and cinnamon rolls, although not the same as you find at the other Holiday Inn Express hotels. Overall, a good experience. Would've rated it higher if it weren't for the freeway noise and the wi-fi issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Chose this hotel for one night as we are IHG elite members and we were in the Fullerton area for the day. Confusing checking in. Saw the large Holiday Inn Express sign on the building but all the signage was for Howard Johnson's. Security guard in parking lot directed us to the check-in lobby. Turned out it was for Howard Johnson's. The Holiday Inn Express check-in was next door, 8 ft away.  Turns out the Holiday Inn Express just opened 2 weeks ago and is owned by the same owner as the Howard Johnson's next door and it used to be part of the Howard Johnson's. We were impressed by the king suite we received on the top floor. It was a mini-apartment, had two rooms and a long balcony which overlooked all of south Orange County, even Disneyland which we were able to watch their fireworks show from. It also overlooked the 91 freeway, which presented big issues when trying to sleep.  The room decor was very modern which was a nice change from other hotels with old-fashioned dreary furnishings. It took a long time for the hot water to develop, but I believe we may have been the first guests to accommodate the room as the next morning we didn't have any problems and the water pressure was fine. Wi-fi was nonexistent though. Could've been because we were right next to the elevator.  The beds and pillows were...Chose this hotel for one night as we are IHG elite members and we were in the Fullerton area for the day. Confusing checking in. Saw the large Holiday Inn Express sign on the building but all the signage was for Howard Johnson's. Security guard in parking lot directed us to the check-in lobby. Turned out it was for Howard Johnson's. The Holiday Inn Express check-in was next door, 8 ft away.  Turns out the Holiday Inn Express just opened 2 weeks ago and is owned by the same owner as the Howard Johnson's next door and it used to be part of the Howard Johnson's. We were impressed by the king suite we received on the top floor. It was a mini-apartment, had two rooms and a long balcony which overlooked all of south Orange County, even Disneyland which we were able to watch their fireworks show from. It also overlooked the 91 freeway, which presented big issues when trying to sleep.  The room decor was very modern which was a nice change from other hotels with old-fashioned dreary furnishings. It took a long time for the hot water to develop, but I believe we may have been the first guests to accommodate the room as the next morning we didn't have any problems and the water pressure was fine. Wi-fi was nonexistent though. Could've been because we were right next to the elevator.  The beds and pillows were very comfortable, the breakfast better than any other Holiday Inn Express I've stayed in- fresh scrambled eggs, bacon, turkey sausage, pancakes, cereal, fruit and cinnamon rolls, although not the same as you find at the other Holiday Inn Express hotels. Overall, a good experience. Would've rated it higher if it weren't for the freeway noise and the wi-fi issue.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +934,661 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mike H</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>rancon0818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r572513825-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve">Newly renovated and in great shape. Two people stand out for great service, the manager Tristan, always there during the day greeting everyone. The second is Lourdes, super friendly and great service. </t>
   </si>
   <si>
+    <t>shesh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r572348749-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r560945411-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -229,6 +241,9 @@
   </si>
   <si>
     <t>February 2018</t>
+  </si>
+  <si>
+    <t>Emerald1125</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r536486016-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -316,6 +331,9 @@
 but...This HIX location is a clean, modern facility.It has seven floors and one elevator.The elevator is clean, spacious, fast, and isequipped with state of the art controls.The front porch of the entrance has attractiveblue accent lights and the interior hallwaysare brightly lit.  The lobby area is both functional and attractive.The entire staff was friendly and accommodating.The air in the corridors does have a slightdusty smell, as mentioned by another reviewer.It is probably due to the construction projectunderway on the first floor.The room itself was large, with a work desk andan ergonomic office chair.  The room had indirectlighting fixtures which created a very pleasantatmosphere. However, there was no ceiling fixture,so the two lamps were the only general lighting.There were sufficient electrical outlets.The door locks use state of the art proximity cards,the bathroom light turns on automatically when youenter, and the desk light turns on with a tap.The wardrobe doors had self-close hinges that closeeffortlessly and silently.The bathroom sink has a huge amount of counter space,the bathroom mirror is large, andthe bathroom lighting is bright.The food at the breakfast bar was good, and theattendants were friendly and did a good job.There were bottles of catsup and Tabasco sauceon each table, which was a nice touch.There were also salt and pepper shakersbut they used the wrong kind of pepper andthe grains of pepper were too large to shakeout of the holes in the lid.They had a large, wide-mouth trash can next tothe coffee and another in the dining room,which made it easy to dispose of trash.There were two large garage door type closuresseparating the food area from the dining area.This allowed the food area to be sealed offwhen breakfast is closed, and presents a solidwall in the dining/coffee area.  I have neverseen this arrangement before but is isimmensely practical.  Another example of howmodern this HIX location is.This HIX shares a parking lot with the adjacentHoward Johnsons, which is not very flexible aboutparking.  Be sure you park on the correct sideof some imaginary line between the two hotels.More</t>
   </si>
   <si>
+    <t>Lilly P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r534427502-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -331,6 +349,9 @@
     <t>Very nice location close to Disneyland and shopping centers including cosco.  Free shuttle to Disneyland, saves on $20 parking.  Better than average Hot Breakfast, most days had scrambled eggs, crisp bacon, sausages, biscuit and gravy.  Also yogurt, hard boiled eggs, cereal and warm cinnamon rolls. Weekends will be extra busy with young kids.  Request a quiet floor if needed.</t>
   </si>
   <si>
+    <t>capttml</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r510638543-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -352,6 +373,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>BengaliKert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r508545129-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -368,6 +392,9 @@
   </si>
   <si>
     <t>August 2017</t>
+  </si>
+  <si>
+    <t>Lise S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r504764662-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -394,6 +421,9 @@
 Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in...We came for some softball games and after searching for a few days on every travel app I had. I literally chose this place just a few hours before we made the drive. It was the best deal I could find that met my picky needs. (Room photos, free parking, free breakfast and location -15mile radius was my max)Checking in / stay :We checked in around 9pm after our finishing our games. There's like 2 hotels side by side and I think there was a wedding reception or something so it took a minute for parking but we found a spot. We were greeted by the gentleman who checked us in. I feel horrible I forgot his name. Very friendly! Check in was easy and smooth. Lobby was bright and clean! Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in the room was handles on the closet door but not a big deal to me.Kids went swimming for the last 30min pool was open. Pool area was clean, water was a nice temperature. It was next to the other hotels pool as well. Checkout / Breakfast:We had an early checkout due to game time but the morning guy at counter was just as pleasant! He even suggested we take some walnuts to go for my daughter for energy. It's not a cook to order breakfast but it's better than just wrapped danishes. They actually had cooked food in a warmer, pancake station, cereal, nice looking ripe fruit, assorted bread/bagels that you could toast and a fridge with yogurt and boiled eggs. Free!!! If you don't mind the surrounding noise then I would highly recommend this place. (We did hear what I think was fireworks. It's close to the highway and in a busy area). If you need a quiet place to sleep then definitely keep looking. Overall....clean, bright, felt safe, great staff, comfy, price was reasonable and would come back again if needed. More</t>
   </si>
   <si>
+    <t>Pia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r503234431-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -410,6 +440,9 @@
   </si>
   <si>
     <t>We came for a softball tourney. We spent many days researching and comparing hotels in the area. We ended up only needing one night stay. We were won over on the phone setting up a block of rooms with Kent, the hotel manager. Check-in was great! Kent was also there to make sure it went smooth. Even offered a one room upgrade and dinner information. Fast and easy. It's a new hotel, and the building and furnishings were excellent. We stayed at the top floor (7 floors) and were awarded the King Suite. VERY IMPRESSIVE. Two rooms, nice setup with plenty of room, and a comfortable pullout couch. Large balcony! We were able to invite the rest of the team to eat in the "living room" and watch the Disneyland fireworks from the balcony! The king bed was new and comfy. It was a GREAT stay! The breakfast? Better than most. Hot bacon, scrambled eggs, cheese omelets, pancakes, oatmeal, turkey sausage, cereal, plenty of choices! The best thing about everything? Cleanliness. CLEAN CLEAN CLEAN. We had no noise issues from the freeway. Also, we were allowed to use Howard Johnsons pool next door (adjacent hotel).More</t>
+  </si>
+  <si>
+    <t>rrqueen</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r496180921-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -938,43 +971,47 @@
       <c r="A2" t="n">
         <v>65014</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -988,50 +1025,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65014</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1045,50 +1086,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65014</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>192465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1102,50 +1147,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65014</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1165,50 +1214,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65014</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192466</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1228,50 +1281,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65014</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192467</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>81</v>
       </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1289,50 +1346,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65014</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192468</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1350,50 +1411,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65014</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192469</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1407,50 +1472,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65014</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>192470</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1464,50 +1533,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65014</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192471</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1525,50 +1598,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65014</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>192472</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1586,7 +1663,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_374.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,186 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Mike H</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r613190585-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>32416</t>
+  </si>
+  <si>
+    <t>10190605</t>
+  </si>
+  <si>
+    <t>613190585</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Hotel Chooses not to send reservation reminders; then strictly enforces their no show policy</t>
+  </si>
+  <si>
+    <t>I made a reservation way in advance of my planned travel. My plans got shifted by a week. I thought I had changed the reservation, but had not. I typically get welcome/reminder emails from the hotels I stay at, Not from this hotel. In stead I was checking my credit card purchases, the morning I was supposed to show up. Saw a charge from the hotel. Called the hotel at 9:00AM to let them no I had made a mistake and would not be there. I have talked to several folks at the hotel. So it is clear there policy is to not send a reminder and  then collect money from anyone who may forget they made a reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I made a reservation way in advance of my planned travel. My plans got shifted by a week. I thought I had changed the reservation, but had not. I typically get welcome/reminder emails from the hotels I stay at, Not from this hotel. In stead I was checking my credit card purchases, the morning I was supposed to show up. Saw a charge from the hotel. Called the hotel at 9:00AM to let them no I had made a mistake and would not be there. I have talked to several folks at the hotel. So it is clear there policy is to not send a reminder and  then collect money from anyone who may forget they made a reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r603628251-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>603628251</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>One night only</t>
+  </si>
+  <si>
+    <t>I liked it. The hotel was clean, close to alot of other businesses, had plenty of free parking, nice pool and contemporary decorated rooms. No dusty flowery bed covers thank you very much. For a standard 1 king bedroom, there was a writing desk and a comfy winged chair on a corner with a foot stool. Unfortunately, we were on the first floor close to the lobby so there was no view. Like at all. All i could see from the window was the parking lot. Theres a big tv of course, an iron, a small refrigerator and the bathroom was huge. Except it didnt lock and it was a sliding door...meaning, i dont know if you'd wanna bunk with someone you hardly know if you plan on pooping there and making bodily sounds and smells haha. It was super clean though with free toiletries and the bed was ultra comfortable. We fell asleep as soon as we hit the pillows. Free breakfast wasnt much though but at least it was that- free.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I liked it. The hotel was clean, close to alot of other businesses, had plenty of free parking, nice pool and contemporary decorated rooms. No dusty flowery bed covers thank you very much. For a standard 1 king bedroom, there was a writing desk and a comfy winged chair on a corner with a foot stool. Unfortunately, we were on the first floor close to the lobby so there was no view. Like at all. All i could see from the window was the parking lot. Theres a big tv of course, an iron, a small refrigerator and the bathroom was huge. Except it didnt lock and it was a sliding door...meaning, i dont know if you'd wanna bunk with someone you hardly know if you plan on pooping there and making bodily sounds and smells haha. It was super clean though with free toiletries and the bed was ultra comfortable. We fell asleep as soon as we hit the pillows. Free breakfast wasnt much though but at least it was that- free.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r606187340-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>606187340</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>except one staff</t>
+  </si>
+  <si>
+    <t>Everything was perfect. Good room condition, kind staffs, hot food for breakfast, great location, except one man at the front desk. He’s the one who acts like he’s “cool” but actually a racist with zero respect to his customer. One day, the room wasn’t made when I came back to my room at noon, which I think is totally fine as long as it gets cleaned before the end of the day. Anyway, I went out again, came back at 5:30 pm, and the room was still messy. It seemed like the cleaning lady forgot to clean up my room. I told “the man” and after he checks with the housekeeping lady, he says “you had the shhhh sign on your door and that’s why they didn’t clean your room”. I said “no” because I clearly remember that there was nothing on the door when I came back to my room at noon AND at 5:30. Also I am 100% sure that the sign was up until 9 am but definitely I took the sign off when I left in the morning. BUT this man was accusing me that I’m lying because after I told him the sign wasn’t up, he said “No No No I checked with the housekeeping. The sign was up until just now.” I understand that the housekeeping team might have gotten things confused. HOWEVER, if your position is to deal with customers, it is extremely...Everything was perfect. Good room condition, kind staffs, hot food for breakfast, great location, except one man at the front desk. He’s the one who acts like he’s “cool” but actually a racist with zero respect to his customer. One day, the room wasn’t made when I came back to my room at noon, which I think is totally fine as long as it gets cleaned before the end of the day. Anyway, I went out again, came back at 5:30 pm, and the room was still messy. It seemed like the cleaning lady forgot to clean up my room. I told “the man” and after he checks with the housekeeping lady, he says “you had the shhhh sign on your door and that’s why they didn’t clean your room”. I said “no” because I clearly remember that there was nothing on the door when I came back to my room at noon AND at 5:30. Also I am 100% sure that the sign was up until 9 am but definitely I took the sign off when I left in the morning. BUT this man was accusing me that I’m lying because after I told him the sign wasn’t up, he said “No No No I checked with the housekeeping. The sign was up until just now.” I understand that the housekeeping team might have gotten things confused. HOWEVER, if your position is to deal with customers, it is extremely inappropriate to say that “you are wrong, ma’am” to them, only believing their own staffs instead of their customers, since there is no evidence to prove who’s right. I was very disappointed with his behavior/attitude toward me and my family. (He didn’t even tell me that the cleaning is done. We just went up because I heard the cleaning lady told him that they put the towels, not to mention that they didn’t even empty the trashcan.) As long as I remember, he was nice to others, except Asians. Come on, it’s Fullerton. You can’t hate Asians if you work in Fullerton, CA. My business involves around this area, so it’s inevitable for me to stay here again because this is one of very few, good-conditioned hotels in this neighborhood. But if I experience this kind of racism and discrimination again at this hotel, it’s hard for me not to file a complaint directly to IHG customer service. To sum up, the staff who looks like Dwayne Johnson needs some training on customer service chapter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was perfect. Good room condition, kind staffs, hot food for breakfast, great location, except one man at the front desk. He’s the one who acts like he’s “cool” but actually a racist with zero respect to his customer. One day, the room wasn’t made when I came back to my room at noon, which I think is totally fine as long as it gets cleaned before the end of the day. Anyway, I went out again, came back at 5:30 pm, and the room was still messy. It seemed like the cleaning lady forgot to clean up my room. I told “the man” and after he checks with the housekeeping lady, he says “you had the shhhh sign on your door and that’s why they didn’t clean your room”. I said “no” because I clearly remember that there was nothing on the door when I came back to my room at noon AND at 5:30. Also I am 100% sure that the sign was up until 9 am but definitely I took the sign off when I left in the morning. BUT this man was accusing me that I’m lying because after I told him the sign wasn’t up, he said “No No No I checked with the housekeeping. The sign was up until just now.” I understand that the housekeeping team might have gotten things confused. HOWEVER, if your position is to deal with customers, it is extremely...Everything was perfect. Good room condition, kind staffs, hot food for breakfast, great location, except one man at the front desk. He’s the one who acts like he’s “cool” but actually a racist with zero respect to his customer. One day, the room wasn’t made when I came back to my room at noon, which I think is totally fine as long as it gets cleaned before the end of the day. Anyway, I went out again, came back at 5:30 pm, and the room was still messy. It seemed like the cleaning lady forgot to clean up my room. I told “the man” and after he checks with the housekeeping lady, he says “you had the shhhh sign on your door and that’s why they didn’t clean your room”. I said “no” because I clearly remember that there was nothing on the door when I came back to my room at noon AND at 5:30. Also I am 100% sure that the sign was up until 9 am but definitely I took the sign off when I left in the morning. BUT this man was accusing me that I’m lying because after I told him the sign wasn’t up, he said “No No No I checked with the housekeeping. The sign was up until just now.” I understand that the housekeeping team might have gotten things confused. HOWEVER, if your position is to deal with customers, it is extremely inappropriate to say that “you are wrong, ma’am” to them, only believing their own staffs instead of their customers, since there is no evidence to prove who’s right. I was very disappointed with his behavior/attitude toward me and my family. (He didn’t even tell me that the cleaning is done. We just went up because I heard the cleaning lady told him that they put the towels, not to mention that they didn’t even empty the trashcan.) As long as I remember, he was nice to others, except Asians. Come on, it’s Fullerton. You can’t hate Asians if you work in Fullerton, CA. My business involves around this area, so it’s inevitable for me to stay here again because this is one of very few, good-conditioned hotels in this neighborhood. But if I experience this kind of racism and discrimination again at this hotel, it’s hard for me not to file a complaint directly to IHG customer service. To sum up, the staff who looks like Dwayne Johnson needs some training on customer service chapter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r602764468-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>602764468</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Cheap option, near Disneyland with free shuttle</t>
+  </si>
+  <si>
+    <t>Great no frills hotel near Disneyland. Chose to stay at this hotel, as we don’t spend a lot of time at the hotel when we’re in LA. This hotel is fairly new and provides an hourly free shuttle service to Disneyland. The only downside is that the hotel only has one elevator, not sure who came up with that idea as you’re SOL if it breaks down.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r598043989-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>598043989</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Newer hotel with a few issues...</t>
+  </si>
+  <si>
+    <t>After spending a week at this newer Holiday Inn Express, I found it to be quite a mixed bag. Pros:Affordable for the areaFriendly front desk staffBetter than average free continental breakfastHotel still "feels" newAmple parkingFree hourly shuttle to Disneyland (8am to noon and 4pm to close)Cons:Odd location on an alley behind a gas station and a rough looking sports bar/pool hallShares amenities (pool, parking lot, Disneyland shuttle) with an old and run down looking Howard JohnsonSingle elevator for the 6-7 story hotel towerHousekeeping was less than stellar - hairs in the shower and footprints on the tile floorDespite being a newer hotel, all four of the USB wall outlets were bent inward behind the face plate and were not usable. For the price I paid, it was an okay hotel, but I would likely spend a little more to stay in a nicer hotel closer to the Anaheim resort area on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>After spending a week at this newer Holiday Inn Express, I found it to be quite a mixed bag. Pros:Affordable for the areaFriendly front desk staffBetter than average free continental breakfastHotel still "feels" newAmple parkingFree hourly shuttle to Disneyland (8am to noon and 4pm to close)Cons:Odd location on an alley behind a gas station and a rough looking sports bar/pool hallShares amenities (pool, parking lot, Disneyland shuttle) with an old and run down looking Howard JohnsonSingle elevator for the 6-7 story hotel towerHousekeeping was less than stellar - hairs in the shower and footprints on the tile floorDespite being a newer hotel, all four of the USB wall outlets were bent inward behind the face plate and were not usable. For the price I paid, it was an okay hotel, but I would likely spend a little more to stay in a nicer hotel closer to the Anaheim resort area on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r596862137-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>596862137</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Poor hotel don’t stay here</t>
+  </si>
+  <si>
+    <t>One elevator, no access to stairs (they were outside and locked) and housekeeping did not clean our room until 4pm. Pool is small with only one umbrella and very few chairs. Also they were going to close the pool at 5pm for “maintenance” on a Saturday and we had to complain to not get it closed. Breakfast area is okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r596752991-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>596752991</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for 2 nights for soccer tourney. Only a few chairs for the pool area so it wasn’t comfortable. The staff didn’t seem to care. In addition, we left a small clothing item behind and we had to call 4 times to ask if housekeeping found it. Each time they said they’d call us back and never did. Once they found item, on 4th call, they wouldn’t send it to us and said we had to provide a carrier. We will not be staying here again... </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r595232883-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>595232883</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Great cheaper option than Disneyland Area</t>
+  </si>
+  <si>
+    <t>I came here on 2 occasions in May of 2018 and both was great. First trip was for a tattoo appointment from a friend in Santa Ana. Got it booked through Hotwire and skeptical at first it was really good. Front desk was nice and accommodating. Check in was no more than 15 minutes which was pretty good since I came directly at 3 PM. Staff: Was always friendly and always greeted us with a Hello and Bye when we would pass through the lobby. Also by the check in desk, there's a little snack stand. Room was great on both occasions. Clean and everything updated. Furniture and Beds were comfortable. New LED TV around a 32 inch. Outdoor closet with all the necessary utilites. Bathroom was clean. Big mirror with lighting all around. Sink was nice and large. Parking: It's easy to find parking during the day, but at night it does fill up pretty quick. It is free by the way.Shuttle: They also have a shuttle to Disneyland that we saw families use.Breakfast: Is ok not the greatest but hey it's free. Nothing too fancy, just your typical fruits, juices, some hot items pending on the day.But overall a great option, not too far from Disneyland so you can save a couple bucks from those expensive hotels and really clean too. Also, right off the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came here on 2 occasions in May of 2018 and both was great. First trip was for a tattoo appointment from a friend in Santa Ana. Got it booked through Hotwire and skeptical at first it was really good. Front desk was nice and accommodating. Check in was no more than 15 minutes which was pretty good since I came directly at 3 PM. Staff: Was always friendly and always greeted us with a Hello and Bye when we would pass through the lobby. Also by the check in desk, there's a little snack stand. Room was great on both occasions. Clean and everything updated. Furniture and Beds were comfortable. New LED TV around a 32 inch. Outdoor closet with all the necessary utilites. Bathroom was clean. Big mirror with lighting all around. Sink was nice and large. Parking: It's easy to find parking during the day, but at night it does fill up pretty quick. It is free by the way.Shuttle: They also have a shuttle to Disneyland that we saw families use.Breakfast: Is ok not the greatest but hey it's free. Nothing too fancy, just your typical fruits, juices, some hot items pending on the day.But overall a great option, not too far from Disneyland so you can save a couple bucks from those expensive hotels and really clean too. Also, right off the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r584216858-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>584216858</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Hotel was comfortable and low cost</t>
+  </si>
+  <si>
+    <t>Not a bad place.  Convenient to basically everywhere (although it is really close to nowhere special).  The rooms were decent sized and comfortable, but we did notice that things are getting a little "frayed around the edges" (e.g., corners in the bathroom are in need of a good deep cleaning, especially in the tub; carpets are getting worn; wallpaper had started peeling in some places).</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r582004030-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
-    <t>32416</t>
-  </si>
-  <si>
-    <t>10190605</t>
-  </si>
-  <si>
     <t>582004030</t>
   </si>
   <si>
@@ -180,12 +345,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>rancon0818</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r572513825-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -201,9 +360,6 @@
     <t xml:space="preserve">Newly renovated and in great shape. Two people stand out for great service, the manager Tristan, always there during the day greeting everyone. The second is Lourdes, super friendly and great service. </t>
   </si>
   <si>
-    <t>shesh2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r572348749-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -219,10 +375,37 @@
     <t>The hotel was extremely clean and the staff were friendly and very helpful. The complimentary breakfast was always hot and fresh. This hotel is located next to a lot of restaurants and stores and is a quick drive to the Disney area. I would definitely stay here again and recommend this hotel to everyone! There is also onsite laundry and free parking.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Eulalia_3</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r567126461-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>567126461</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We had a great stay thanks in large part to Tristan.  He's a gem but the rest of the staff was excellent too.  Our room was spacious and clean.  We were able to walk to restaurants (I know walking in LA but there's lots of places right around the corner and across the street).  The hotel has easy access to Hwy 91 and I-5 and is close to Disneyland.  It's also centrally located if you are doing other things.  The next day we went to the Huntington Library and Gardens up near Pasadena and got there in about 35 minutes.  In all, a great place to stay.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r565841743-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>565841743</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Top tier Express Location!</t>
+  </si>
+  <si>
+    <t>This (newer) addition to the Holiday Inn Express family is a  very good one!   New hotel, with the latest decor and amenities.   Currently I would rate this at the top end of the Express family that I have been to in the past 4 years.Hotel very clean, staff very friendly.   Plenty of parking as well.    Only a few miles from Disneyland, and they also have a free shuttle to/from the Disneyland Parks (not publicized on the web site for some reason).All-in-all had a fantastic stay, and I'd definitely stay at this property in the future if I'm in the Anaheim/Fullerton area!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r560945411-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -243,7 +426,31 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Emerald1125</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r558420229-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>558420229</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Perfectly happy with our stay.</t>
+  </si>
+  <si>
+    <t>Three of us (one child, two adults) stayed at the Holiday Inn Express Fullerton in Jan 2018 for one purpose:  visiting Disneyland!  We greatly enjoyed our time at this facility, with the pleasant staff being the highlight of the experience.  The room was clean, comfortable, and we didn't have issues with extraneous noise.  Personally I didn't go for a swim in the pool but the 8 year old reports that it was "great!".  The beds were comfortable and we had great sleeps as a result.  I must say we also enjoyed the surrounding area, as there's lots of interesting shopping/dining within easy walking distance of the hotel.
+Breakfast was free, and the fare was simple but good:  bacon, sausages, scrambled eggs, yogurt, fruit, cereals, and a pancake machine  :)  The coffee (available 24 hrs) was excellent!
+The free shuttle to/from Disneyland was very useful, and we availed ourselves of that service on many occasions.  Do be aware that it doesn't operate during midday hours so if you're planning on traveling to/from the park from say noon to 4pm you may need to find alternate means of transportation or modify your plans.
+This isn't a high-end resort property, nor does it purport to be.  It did an excellent job in providing clean, functional accommodation that met our needs and provided good value for money.  The staff, at all levels, made us feel very welcome...we look forward to seeing them again some...Three of us (one child, two adults) stayed at the Holiday Inn Express Fullerton in Jan 2018 for one purpose:  visiting Disneyland!  We greatly enjoyed our time at this facility, with the pleasant staff being the highlight of the experience.  The room was clean, comfortable, and we didn't have issues with extraneous noise.  Personally I didn't go for a swim in the pool but the 8 year old reports that it was "great!".  The beds were comfortable and we had great sleeps as a result.  I must say we also enjoyed the surrounding area, as there's lots of interesting shopping/dining within easy walking distance of the hotel.Breakfast was free, and the fare was simple but good:  bacon, sausages, scrambled eggs, yogurt, fruit, cereals, and a pancake machine  :)  The coffee (available 24 hrs) was excellent!The free shuttle to/from Disneyland was very useful, and we availed ourselves of that service on many occasions.  Do be aware that it doesn't operate during midday hours so if you're planning on traveling to/from the park from say noon to 4pm you may need to find alternate means of transportation or modify your plans.This isn't a high-end resort property, nor does it purport to be.  It did an excellent job in providing clean, functional accommodation that met our needs and provided good value for money.  The staff, at all levels, made us feel very welcome...we look forward to seeing them again some time.  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Three of us (one child, two adults) stayed at the Holiday Inn Express Fullerton in Jan 2018 for one purpose:  visiting Disneyland!  We greatly enjoyed our time at this facility, with the pleasant staff being the highlight of the experience.  The room was clean, comfortable, and we didn't have issues with extraneous noise.  Personally I didn't go for a swim in the pool but the 8 year old reports that it was "great!".  The beds were comfortable and we had great sleeps as a result.  I must say we also enjoyed the surrounding area, as there's lots of interesting shopping/dining within easy walking distance of the hotel.
+Breakfast was free, and the fare was simple but good:  bacon, sausages, scrambled eggs, yogurt, fruit, cereals, and a pancake machine  :)  The coffee (available 24 hrs) was excellent!
+The free shuttle to/from Disneyland was very useful, and we availed ourselves of that service on many occasions.  Do be aware that it doesn't operate during midday hours so if you're planning on traveling to/from the park from say noon to 4pm you may need to find alternate means of transportation or modify your plans.
+This isn't a high-end resort property, nor does it purport to be.  It did an excellent job in providing clean, functional accommodation that met our needs and provided good value for money.  The staff, at all levels, made us feel very welcome...we look forward to seeing them again some...Three of us (one child, two adults) stayed at the Holiday Inn Express Fullerton in Jan 2018 for one purpose:  visiting Disneyland!  We greatly enjoyed our time at this facility, with the pleasant staff being the highlight of the experience.  The room was clean, comfortable, and we didn't have issues with extraneous noise.  Personally I didn't go for a swim in the pool but the 8 year old reports that it was "great!".  The beds were comfortable and we had great sleeps as a result.  I must say we also enjoyed the surrounding area, as there's lots of interesting shopping/dining within easy walking distance of the hotel.Breakfast was free, and the fare was simple but good:  bacon, sausages, scrambled eggs, yogurt, fruit, cereals, and a pancake machine  :)  The coffee (available 24 hrs) was excellent!The free shuttle to/from Disneyland was very useful, and we availed ourselves of that service on many occasions.  Do be aware that it doesn't operate during midday hours so if you're planning on traveling to/from the park from say noon to 4pm you may need to find alternate means of transportation or modify your plans.This isn't a high-end resort property, nor does it purport to be.  It did an excellent job in providing clean, functional accommodation that met our needs and provided good value for money.  The staff, at all levels, made us feel very welcome...we look forward to seeing them again some time.  :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r536486016-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -331,9 +538,6 @@
 but...This HIX location is a clean, modern facility.It has seven floors and one elevator.The elevator is clean, spacious, fast, and isequipped with state of the art controls.The front porch of the entrance has attractiveblue accent lights and the interior hallwaysare brightly lit.  The lobby area is both functional and attractive.The entire staff was friendly and accommodating.The air in the corridors does have a slightdusty smell, as mentioned by another reviewer.It is probably due to the construction projectunderway on the first floor.The room itself was large, with a work desk andan ergonomic office chair.  The room had indirectlighting fixtures which created a very pleasantatmosphere. However, there was no ceiling fixture,so the two lamps were the only general lighting.There were sufficient electrical outlets.The door locks use state of the art proximity cards,the bathroom light turns on automatically when youenter, and the desk light turns on with a tap.The wardrobe doors had self-close hinges that closeeffortlessly and silently.The bathroom sink has a huge amount of counter space,the bathroom mirror is large, andthe bathroom lighting is bright.The food at the breakfast bar was good, and theattendants were friendly and did a good job.There were bottles of catsup and Tabasco sauceon each table, which was a nice touch.There were also salt and pepper shakersbut they used the wrong kind of pepper andthe grains of pepper were too large to shakeout of the holes in the lid.They had a large, wide-mouth trash can next tothe coffee and another in the dining room,which made it easy to dispose of trash.There were two large garage door type closuresseparating the food area from the dining area.This allowed the food area to be sealed offwhen breakfast is closed, and presents a solidwall in the dining/coffee area.  I have neverseen this arrangement before but is isimmensely practical.  Another example of howmodern this HIX location is.This HIX shares a parking lot with the adjacentHoward Johnsons, which is not very flexible aboutparking.  Be sure you park on the correct sideof some imaginary line between the two hotels.More</t>
   </si>
   <si>
-    <t>Lilly P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r534427502-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -349,7 +553,49 @@
     <t>Very nice location close to Disneyland and shopping centers including cosco.  Free shuttle to Disneyland, saves on $20 parking.  Better than average Hot Breakfast, most days had scrambled eggs, crisp bacon, sausages, biscuit and gravy.  Also yogurt, hard boiled eggs, cereal and warm cinnamon rolls. Weekends will be extra busy with young kids.  Request a quiet floor if needed.</t>
   </si>
   <si>
-    <t>capttml</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r530665981-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>530665981</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New </t>
+  </si>
+  <si>
+    <t>This motel is obviously new and We couldn't fault the attitude of the management who let us check in early and the helpful attitude of the rest of the staff. The room was, as you would expect clean and tidy. We had no problems with noise. All in all a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julio F, General Manager at Holiday Inn Express Fullerton, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>This motel is obviously new and We couldn't fault the attitude of the management who let us check in early and the helpful attitude of the rest of the staff. The room was, as you would expect clean and tidy. We had no problems with noise. All in all a pleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r511169521-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>511169521</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Looked like a nice place but....... I thought one main reason to stay at a hotel was to SLEEP</t>
+  </si>
+  <si>
+    <t>This place LOOKED nice. The room was nice. The breakfast was actually better than average. BUT what I really wanted was a good night's sleep. The pool are was supposed to close at 10. The noise, large crowd, kids screaming, people in the pool making noise, people running and yelling past my room, all of this went on until 11:15. I called the desk a couple of times- they sent down "security", but the problem continued on and on until the "next shift" came on at 11. I "saw" the security person talking to the crowd, but I saw them stay in the pool and not disburse. At one point, one "excuse" I heard was that the  people didn't really understand English so they thought it was "ok" since it was "only 11." Well, I don't care if they are from outer space, the ONE thing a hotel should provide is a place to SLEEP. I was not at my best for my work trip because I didn't get my sleep. I made less money today because I didn't get a good night's sleep. Does this matter at all? I asked that the manager call me when I checked out- and again later this afternoon, called for the manager, to discuss an adjustment to my bill. I was told he was at lunch but would be given my message again. NO CALL BACK. Now I wish I had read the...This place LOOKED nice. The room was nice. The breakfast was actually better than average. BUT what I really wanted was a good night's sleep. The pool are was supposed to close at 10. The noise, large crowd, kids screaming, people in the pool making noise, people running and yelling past my room, all of this went on until 11:15. I called the desk a couple of times- they sent down "security", but the problem continued on and on until the "next shift" came on at 11. I "saw" the security person talking to the crowd, but I saw them stay in the pool and not disburse. At one point, one "excuse" I heard was that the  people didn't really understand English so they thought it was "ok" since it was "only 11." Well, I don't care if they are from outer space, the ONE thing a hotel should provide is a place to SLEEP. I was not at my best for my work trip because I didn't get my sleep. I made less money today because I didn't get a good night's sleep. Does this matter at all? I asked that the manager call me when I checked out- and again later this afternoon, called for the manager, to discuss an adjustment to my bill. I was told he was at lunch but would be given my message again. NO CALL BACK. Now I wish I had read the prior reviews - that indicate an inattentiveness by management. YUP- I agree. As I said, this COULD have been a nice place if my very basic rights had been respected- not just put aside for a large crowd that was in the pool area making an unbelievable amount of noise, well after what I was told was a "10 o'clock hard close time." Had I heard back from the manager I might feel different, but right now, I have to rate this as a poor experience. I am a frequent Holiday Inn guest and am surprised at this lack of care. I am giving the poor rating due to the lack of respect for the basic needs of a guest (SLEEP), the lack of care and attention given to the problem, and the complete idiocy of blaming this on the fact that "they don't speak enough English to know this is wrong." Management had all day to make me think differently, and chose to ignore my request.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This place LOOKED nice. The room was nice. The breakfast was actually better than average. BUT what I really wanted was a good night's sleep. The pool are was supposed to close at 10. The noise, large crowd, kids screaming, people in the pool making noise, people running and yelling past my room, all of this went on until 11:15. I called the desk a couple of times- they sent down "security", but the problem continued on and on until the "next shift" came on at 11. I "saw" the security person talking to the crowd, but I saw them stay in the pool and not disburse. At one point, one "excuse" I heard was that the  people didn't really understand English so they thought it was "ok" since it was "only 11." Well, I don't care if they are from outer space, the ONE thing a hotel should provide is a place to SLEEP. I was not at my best for my work trip because I didn't get my sleep. I made less money today because I didn't get a good night's sleep. Does this matter at all? I asked that the manager call me when I checked out- and again later this afternoon, called for the manager, to discuss an adjustment to my bill. I was told he was at lunch but would be given my message again. NO CALL BACK. Now I wish I had read the...This place LOOKED nice. The room was nice. The breakfast was actually better than average. BUT what I really wanted was a good night's sleep. The pool are was supposed to close at 10. The noise, large crowd, kids screaming, people in the pool making noise, people running and yelling past my room, all of this went on until 11:15. I called the desk a couple of times- they sent down "security", but the problem continued on and on until the "next shift" came on at 11. I "saw" the security person talking to the crowd, but I saw them stay in the pool and not disburse. At one point, one "excuse" I heard was that the  people didn't really understand English so they thought it was "ok" since it was "only 11." Well, I don't care if they are from outer space, the ONE thing a hotel should provide is a place to SLEEP. I was not at my best for my work trip because I didn't get my sleep. I made less money today because I didn't get a good night's sleep. Does this matter at all? I asked that the manager call me when I checked out- and again later this afternoon, called for the manager, to discuss an adjustment to my bill. I was told he was at lunch but would be given my message again. NO CALL BACK. Now I wish I had read the prior reviews - that indicate an inattentiveness by management. YUP- I agree. As I said, this COULD have been a nice place if my very basic rights had been respected- not just put aside for a large crowd that was in the pool area making an unbelievable amount of noise, well after what I was told was a "10 o'clock hard close time." Had I heard back from the manager I might feel different, but right now, I have to rate this as a poor experience. I am a frequent Holiday Inn guest and am surprised at this lack of care. I am giving the poor rating due to the lack of respect for the basic needs of a guest (SLEEP), the lack of care and attention given to the problem, and the complete idiocy of blaming this on the fact that "they don't speak enough English to know this is wrong." Management had all day to make me think differently, and chose to ignore my request.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r510638543-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -370,12 +616,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>BengaliKert</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r508545129-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -389,12 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve">We came in on a quick trip to stay before we went to Disney. We were greeted well and hosted well. The lobby and rooms have recently been redone and were very comfortable and welcoming. Kids thought the pool was fun. Beds were very comfortable. FREE SHUTTLE TO DISNEY Free parking. Great breakfast. (Pancake maker!)Easy walk to Inn-N-Out, Marshall's, Sprouts and more. We would definitely stay here again and highly recommend. </t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>Lise S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r504764662-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -421,7 +655,40 @@
 Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in...We came for some softball games and after searching for a few days on every travel app I had. I literally chose this place just a few hours before we made the drive. It was the best deal I could find that met my picky needs. (Room photos, free parking, free breakfast and location -15mile radius was my max)Checking in / stay :We checked in around 9pm after our finishing our games. There's like 2 hotels side by side and I think there was a wedding reception or something so it took a minute for parking but we found a spot. We were greeted by the gentleman who checked us in. I feel horrible I forgot his name. Very friendly! Check in was easy and smooth. Lobby was bright and clean! Our room was located on the first floor. Beds were comfy, pillows were marked firm/soft on pillowcase so I let my kid choose. Plenty of lighting (also bright), USB ports and outlets sufficient to recharge all our devices. Clean fridge and decent sized bathroom. To our surprise there was a sliding door that led right to the pool. We didn't have access to pool towels but the maintenance/laundry room was across the hall so I was able to get two from the lady in there. The towels were nice and fluffy too! Not your typical gym type towels that feel like sandpaper. The only thing missing in the room was handles on the closet door but not a big deal to me.Kids went swimming for the last 30min pool was open. Pool area was clean, water was a nice temperature. It was next to the other hotels pool as well. Checkout / Breakfast:We had an early checkout due to game time but the morning guy at counter was just as pleasant! He even suggested we take some walnuts to go for my daughter for energy. It's not a cook to order breakfast but it's better than just wrapped danishes. They actually had cooked food in a warmer, pancake station, cereal, nice looking ripe fruit, assorted bread/bagels that you could toast and a fridge with yogurt and boiled eggs. Free!!! If you don't mind the surrounding noise then I would highly recommend this place. (We did hear what I think was fireworks. It's close to the highway and in a busy area). If you need a quiet place to sleep then definitely keep looking. Overall....clean, bright, felt safe, great staff, comfy, price was reasonable and would come back again if needed. More</t>
   </si>
   <si>
-    <t>Pia T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r504206192-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>504206192</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Wow! This the worst hotel/motel I have ever tried stayed in. I made a reservation for a room with two beds and when I arrived to check in, I was given a key to a room that was already occupied with sleeping guests! The front desk person insisted rudely that that the room was vacant despite the obvious people who were woken and probably frightened by being walked in on. He then tried to blame the housekeepers for his incompetence. Another room was offered to me, but for some reason, he was not able to issue any key cards to this room. Being pretty late and tired, I accepted that he just let me in the alternative room without having a key only to find that there was some damage, a missing TV with only a mount on the wall and a broken air conditioner that did not work. It was well over 80 degrees in the room and at that point I decided to get a refund of my $174 and find a new place to sleep. I was even considering sleeping in my car rather that give this company a penny of my money. I did find a motel down the road for $60 less per night with nobody sleeping in the bed and a working air-conditioning. But the story does not end there. I was changed for the $174 twice and refunded only once. After three phone...Wow! This the worst hotel/motel I have ever tried stayed in. I made a reservation for a room with two beds and when I arrived to check in, I was given a key to a room that was already occupied with sleeping guests! The front desk person insisted rudely that that the room was vacant despite the obvious people who were woken and probably frightened by being walked in on. He then tried to blame the housekeepers for his incompetence. Another room was offered to me, but for some reason, he was not able to issue any key cards to this room. Being pretty late and tired, I accepted that he just let me in the alternative room without having a key only to find that there was some damage, a missing TV with only a mount on the wall and a broken air conditioner that did not work. It was well over 80 degrees in the room and at that point I decided to get a refund of my $174 and find a new place to sleep. I was even considering sleeping in my car rather that give this company a penny of my money. I did find a motel down the road for $60 less per night with nobody sleeping in the bed and a working air-conditioning. But the story does not end there. I was changed for the $174 twice and refunded only once. After three phone calls and talking with 3 different “managers”, I am still waiting on a refund for the room that I never stayed at. I will never stay at any holiday inn again and I will recommend to everyone I know to avoid at all costs. At this point I have disputed the charge with my credit card company and I will eventually get my money back, no thanks to this horrible company.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! This the worst hotel/motel I have ever tried stayed in. I made a reservation for a room with two beds and when I arrived to check in, I was given a key to a room that was already occupied with sleeping guests! The front desk person insisted rudely that that the room was vacant despite the obvious people who were woken and probably frightened by being walked in on. He then tried to blame the housekeepers for his incompetence. Another room was offered to me, but for some reason, he was not able to issue any key cards to this room. Being pretty late and tired, I accepted that he just let me in the alternative room without having a key only to find that there was some damage, a missing TV with only a mount on the wall and a broken air conditioner that did not work. It was well over 80 degrees in the room and at that point I decided to get a refund of my $174 and find a new place to sleep. I was even considering sleeping in my car rather that give this company a penny of my money. I did find a motel down the road for $60 less per night with nobody sleeping in the bed and a working air-conditioning. But the story does not end there. I was changed for the $174 twice and refunded only once. After three phone...Wow! This the worst hotel/motel I have ever tried stayed in. I made a reservation for a room with two beds and when I arrived to check in, I was given a key to a room that was already occupied with sleeping guests! The front desk person insisted rudely that that the room was vacant despite the obvious people who were woken and probably frightened by being walked in on. He then tried to blame the housekeepers for his incompetence. Another room was offered to me, but for some reason, he was not able to issue any key cards to this room. Being pretty late and tired, I accepted that he just let me in the alternative room without having a key only to find that there was some damage, a missing TV with only a mount on the wall and a broken air conditioner that did not work. It was well over 80 degrees in the room and at that point I decided to get a refund of my $174 and find a new place to sleep. I was even considering sleeping in my car rather that give this company a penny of my money. I did find a motel down the road for $60 less per night with nobody sleeping in the bed and a working air-conditioning. But the story does not end there. I was changed for the $174 twice and refunded only once. After three phone calls and talking with 3 different “managers”, I am still waiting on a refund for the room that I never stayed at. I will never stay at any holiday inn again and I will recommend to everyone I know to avoid at all costs. At this point I have disputed the charge with my credit card company and I will eventually get my money back, no thanks to this horrible company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r503907905-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>503907905</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save yourself the hassle! </t>
+  </si>
+  <si>
+    <t>Checked in 7/12/17 in the evening, room was okay, comfortable beds, but very high, almost had to jump up to get into bed. Did not sleep well, room was very noisy &amp; could hear all traffic from road &amp; outside. View was towards the pool &amp; Howard Johnson Hotel next door. The next morning we went to breakfast, it was hot &amp; okay, but a lot was to be desired...no sausage, no biscuits &amp; gravy, no bananas, super basic. Upon finishing breakfast we gathered our room key &amp; decided we'd take the hotel shuttle to Disney to avoid parking fee's &amp; driving in traffic. The shuttle driver appeared to be very "short-kinda rude" in attitude. He walked in the hotel doors &amp; called out one time "last call for Disney" did a half way turn &amp; out the door he went. So we quickly got on the shuttle as we thought he seemed in a hurry, with not many seats available, we were able to find separate seats still. It was a rough ride &amp; very loud in shuttle. Spent the day at Disney until midnight when park closed then left back to the hotel shuttle drop off/pick up area to take the shuttle back to the hotel, only to find out a minute later that there was no shuttle available &amp; the driver had gone home early that day per the hotel front desk person. We attempted to take...Checked in 7/12/17 in the evening, room was okay, comfortable beds, but very high, almost had to jump up to get into bed. Did not sleep well, room was very noisy &amp; could hear all traffic from road &amp; outside. View was towards the pool &amp; Howard Johnson Hotel next door. The next morning we went to breakfast, it was hot &amp; okay, but a lot was to be desired...no sausage, no biscuits &amp; gravy, no bananas, super basic. Upon finishing breakfast we gathered our room key &amp; decided we'd take the hotel shuttle to Disney to avoid parking fee's &amp; driving in traffic. The shuttle driver appeared to be very "short-kinda rude" in attitude. He walked in the hotel doors &amp; called out one time "last call for Disney" did a half way turn &amp; out the door he went. So we quickly got on the shuttle as we thought he seemed in a hurry, with not many seats available, we were able to find separate seats still. It was a rough ride &amp; very loud in shuttle. Spent the day at Disney until midnight when park closed then left back to the hotel shuttle drop off/pick up area to take the shuttle back to the hotel, only to find out a minute later that there was no shuttle available &amp; the driver had gone home early that day per the hotel front desk person. We attempted to take the shuttle from another hotel closest to ours, however the drivers will not do it as they are on time constraints, so they said... We ended up calling a cab which charged 16 dollars, but the cab driver was super nice &amp; advised to inform the hotel so they could reimburse us. Upon arrival to the hotel, we were quickly informed at the lobby that there elevator was broken &amp; no elevator was available for us to get to our room where they placed us the night before on the 7th floor. It was past midnight now, we were all very exhausted &amp; both of us adults have medical conditions that limit our movement of climbing stairs, especially 7 floors up. The front desk person gave us the option of staying in lobby or going up to get our medical equipment (cpap machine. When I asked if they could move us downstairs to a room, he said none available &amp; only the security could go up with one of us. All of our clothes, snacks, toiletries &amp; medical equipment were in the room on the 7th floor. My daughter is a minor so we weren't going to send her up the stairs by herself or with someone from the hotel we didn't know. He stated 2 hours tops for the elevator to get fixed, that someone had gone for the part to L.A., I then asked if by any chance, there were a handicap room or temporary room they could place us while the elevator was repaired, he said there was one, but ac unit wasn't working so then I said, we'll what would you like me to do, stay in the lobby after I paid for a week stay here? He stated he'd go check ac unit in that room so he did &amp; miraculously it worked right away. He allowed us to stay there temporary for the 2 hours the elevator was under repairs, keep in mind it was past 1am at that point. So we waited &amp; waited, my daughter fell asleep on the one bed the room had, I fell asleep sitting up on the hard sofa &amp; my husband fell asleep on the small chair, the phone finally rang at 5am to inform us the elevator was temporarily fixed. We quickly got up &amp; left to our room on the 7th floor! By the time we got in our room, took turns in shower &amp; got ready for bed it was 6am, my daughter was exhausted &amp; my hubby too. With both of them asleep, I realized that our plans to go to CA Adventures that morning had to be cancelled since we we're all exhausted and didn't get a good night's sleep so we had to rearrange the vacation schedule,  cancel the wax museum so we can fit in Disney CA Adventures the following day after we got some rest. I became worried of the elevator as they had informed it was on a temporary fix only. So I reached out to contact mgr &amp; was told he came in at 10am. After several attempts, he called back at 11am &amp; stated he could not reimburse the cab, but would reimburse the 1 night stay we did not sleep in room. I then asked if elevator was going to be down again cuz being that they only fixed it temporarily,  I didn't want to leave room to come &amp; take the chance we weren't going to be able to access our room again. The manager stated, he didn't know and was trying to contact an elevator repair company. That was also said the night before at midnight so my concern became higher. I asked if he could move us downstairs or what he can do &amp; he said he would get back to me. We did not hear from him until 12:45pm at which time he informed that the elevator was still not working properly,  that he was looking for a company to come out and fix it and he had no idea if it would be down again or not or what time it be repaired. He stated if we needed to check out, we needed to let him know by 2pm, minded it was 15 til 1pm. Luckily we found another hotel in such short notice &amp; it had a working elevator &amp; we're able to move, but had to pay more taxes &amp; 40 dollars more a night, though the ac worked fine, breakfast was awesome &amp; the people there were super nice. As for my credit for that one night, I had to call the hotel 5-6 times &amp; explain every single time, found out the manager quit and the other lady second to him is quitting too. They did not credit my card so I had to file a dispute with my bank. Never again will we stay at that Holiday Inn Express, Fullerton CA. Horrible experience,  save yourself the headache! MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in 7/12/17 in the evening, room was okay, comfortable beds, but very high, almost had to jump up to get into bed. Did not sleep well, room was very noisy &amp; could hear all traffic from road &amp; outside. View was towards the pool &amp; Howard Johnson Hotel next door. The next morning we went to breakfast, it was hot &amp; okay, but a lot was to be desired...no sausage, no biscuits &amp; gravy, no bananas, super basic. Upon finishing breakfast we gathered our room key &amp; decided we'd take the hotel shuttle to Disney to avoid parking fee's &amp; driving in traffic. The shuttle driver appeared to be very "short-kinda rude" in attitude. He walked in the hotel doors &amp; called out one time "last call for Disney" did a half way turn &amp; out the door he went. So we quickly got on the shuttle as we thought he seemed in a hurry, with not many seats available, we were able to find separate seats still. It was a rough ride &amp; very loud in shuttle. Spent the day at Disney until midnight when park closed then left back to the hotel shuttle drop off/pick up area to take the shuttle back to the hotel, only to find out a minute later that there was no shuttle available &amp; the driver had gone home early that day per the hotel front desk person. We attempted to take...Checked in 7/12/17 in the evening, room was okay, comfortable beds, but very high, almost had to jump up to get into bed. Did not sleep well, room was very noisy &amp; could hear all traffic from road &amp; outside. View was towards the pool &amp; Howard Johnson Hotel next door. The next morning we went to breakfast, it was hot &amp; okay, but a lot was to be desired...no sausage, no biscuits &amp; gravy, no bananas, super basic. Upon finishing breakfast we gathered our room key &amp; decided we'd take the hotel shuttle to Disney to avoid parking fee's &amp; driving in traffic. The shuttle driver appeared to be very "short-kinda rude" in attitude. He walked in the hotel doors &amp; called out one time "last call for Disney" did a half way turn &amp; out the door he went. So we quickly got on the shuttle as we thought he seemed in a hurry, with not many seats available, we were able to find separate seats still. It was a rough ride &amp; very loud in shuttle. Spent the day at Disney until midnight when park closed then left back to the hotel shuttle drop off/pick up area to take the shuttle back to the hotel, only to find out a minute later that there was no shuttle available &amp; the driver had gone home early that day per the hotel front desk person. We attempted to take the shuttle from another hotel closest to ours, however the drivers will not do it as they are on time constraints, so they said... We ended up calling a cab which charged 16 dollars, but the cab driver was super nice &amp; advised to inform the hotel so they could reimburse us. Upon arrival to the hotel, we were quickly informed at the lobby that there elevator was broken &amp; no elevator was available for us to get to our room where they placed us the night before on the 7th floor. It was past midnight now, we were all very exhausted &amp; both of us adults have medical conditions that limit our movement of climbing stairs, especially 7 floors up. The front desk person gave us the option of staying in lobby or going up to get our medical equipment (cpap machine. When I asked if they could move us downstairs to a room, he said none available &amp; only the security could go up with one of us. All of our clothes, snacks, toiletries &amp; medical equipment were in the room on the 7th floor. My daughter is a minor so we weren't going to send her up the stairs by herself or with someone from the hotel we didn't know. He stated 2 hours tops for the elevator to get fixed, that someone had gone for the part to L.A., I then asked if by any chance, there were a handicap room or temporary room they could place us while the elevator was repaired, he said there was one, but ac unit wasn't working so then I said, we'll what would you like me to do, stay in the lobby after I paid for a week stay here? He stated he'd go check ac unit in that room so he did &amp; miraculously it worked right away. He allowed us to stay there temporary for the 2 hours the elevator was under repairs, keep in mind it was past 1am at that point. So we waited &amp; waited, my daughter fell asleep on the one bed the room had, I fell asleep sitting up on the hard sofa &amp; my husband fell asleep on the small chair, the phone finally rang at 5am to inform us the elevator was temporarily fixed. We quickly got up &amp; left to our room on the 7th floor! By the time we got in our room, took turns in shower &amp; got ready for bed it was 6am, my daughter was exhausted &amp; my hubby too. With both of them asleep, I realized that our plans to go to CA Adventures that morning had to be cancelled since we we're all exhausted and didn't get a good night's sleep so we had to rearrange the vacation schedule,  cancel the wax museum so we can fit in Disney CA Adventures the following day after we got some rest. I became worried of the elevator as they had informed it was on a temporary fix only. So I reached out to contact mgr &amp; was told he came in at 10am. After several attempts, he called back at 11am &amp; stated he could not reimburse the cab, but would reimburse the 1 night stay we did not sleep in room. I then asked if elevator was going to be down again cuz being that they only fixed it temporarily,  I didn't want to leave room to come &amp; take the chance we weren't going to be able to access our room again. The manager stated, he didn't know and was trying to contact an elevator repair company. That was also said the night before at midnight so my concern became higher. I asked if he could move us downstairs or what he can do &amp; he said he would get back to me. We did not hear from him until 12:45pm at which time he informed that the elevator was still not working properly,  that he was looking for a company to come out and fix it and he had no idea if it would be down again or not or what time it be repaired. He stated if we needed to check out, we needed to let him know by 2pm, minded it was 15 til 1pm. Luckily we found another hotel in such short notice &amp; it had a working elevator &amp; we're able to move, but had to pay more taxes &amp; 40 dollars more a night, though the ac worked fine, breakfast was awesome &amp; the people there were super nice. As for my credit for that one night, I had to call the hotel 5-6 times &amp; explain every single time, found out the manager quit and the other lady second to him is quitting too. They did not credit my card so I had to file a dispute with my bank. Never again will we stay at that Holiday Inn Express, Fullerton CA. Horrible experience,  save yourself the headache! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r503234431-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
@@ -442,9 +709,6 @@
     <t>We came for a softball tourney. We spent many days researching and comparing hotels in the area. We ended up only needing one night stay. We were won over on the phone setting up a block of rooms with Kent, the hotel manager. Check-in was great! Kent was also there to make sure it went smooth. Even offered a one room upgrade and dinner information. Fast and easy. It's a new hotel, and the building and furnishings were excellent. We stayed at the top floor (7 floors) and were awarded the King Suite. VERY IMPRESSIVE. Two rooms, nice setup with plenty of room, and a comfortable pullout couch. Large balcony! We were able to invite the rest of the team to eat in the "living room" and watch the Disneyland fireworks from the balcony! The king bed was new and comfy. It was a GREAT stay! The breakfast? Better than most. Hot bacon, scrambled eggs, cheese omelets, pancakes, oatmeal, turkey sausage, cereal, plenty of choices! The best thing about everything? Cleanliness. CLEAN CLEAN CLEAN. We had no noise issues from the freeway. Also, we were allowed to use Howard Johnsons pool next door (adjacent hotel).More</t>
   </si>
   <si>
-    <t>rrqueen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d10190605-r496180921-Holiday_Inn_Express_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -461,9 +725,6 @@
   </si>
   <si>
     <t>June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>Chose this hotel for one night as we are IHG elite members and we were in the Fullerton area for the day. Confusing checking in. Saw the large Holiday Inn Express sign on the building but all the signage was for Howard Johnson's. Security guard in parking lot directed us to the check-in lobby. Turned out it was for Howard Johnson's. The Holiday Inn Express check-in was next door, 8 ft away.  Turns out the Holiday Inn Express just opened 2 weeks ago and is owned by the same owner as the Howard Johnson's next door and it used to be part of the Howard Johnson's. We were impressed by the king suite we received on the top floor. It was a mini-apartment, had two rooms and a long balcony which overlooked all of south Orange County, even Disneyland which we were able to watch their fireworks show from. It also overlooked the 91 freeway, which presented big issues when trying to sleep.  The room decor was very modern which was a nice change from other hotels with old-fashioned dreary furnishings. It took a long time for the hot water to develop, but I believe we may have been the first guests to accommodate the room as the next morning we didn't have any problems and the water pressure was fine. Wi-fi was nonexistent though. Could've been because we were right next to the elevator.  The beds and pillows were...Chose this hotel for one night as we are IHG elite members and we were in the Fullerton area for the day. Confusing checking in. Saw the large Holiday Inn Express sign on the building but all the signage was for Howard Johnson's. Security guard in parking lot directed us to the check-in lobby. Turned out it was for Howard Johnson's. The Holiday Inn Express check-in was next door, 8 ft away.  Turns out the Holiday Inn Express just opened 2 weeks ago and is owned by the same owner as the Howard Johnson's next door and it used to be part of the Howard Johnson's. We were impressed by the king suite we received on the top floor. It was a mini-apartment, had two rooms and a long balcony which overlooked all of south Orange County, even Disneyland which we were able to watch their fireworks show from. It also overlooked the 91 freeway, which presented big issues when trying to sleep.  The room decor was very modern which was a nice change from other hotels with old-fashioned dreary furnishings. It took a long time for the hot water to develop, but I believe we may have been the first guests to accommodate the room as the next morning we didn't have any problems and the water pressure was fine. Wi-fi was nonexistent though. Could've been because we were right next to the elevator.  The beds and pillows were very comfortable, the breakfast better than any other Holiday Inn Express I've stayed in- fresh scrambled eggs, bacon, turkey sausage, pancakes, cereal, fruit and cinnamon rolls, although not the same as you find at the other Holiday Inn Express hotels. Overall, a good experience. Would've rated it higher if it weren't for the freeway noise and the wi-fi issue.More</t>
@@ -971,108 +1232,102 @@
       <c r="A2" t="n">
         <v>65014</v>
       </c>
-      <c r="B2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65014</v>
       </c>
-      <c r="B3" t="n">
-        <v>192464</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1086,33 +1341,29 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65014</v>
       </c>
-      <c r="B4" t="n">
-        <v>192465</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
@@ -1127,13 +1378,13 @@
         <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1147,523 +1398,1447 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65014</v>
       </c>
-      <c r="B5" t="n">
-        <v>42315</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65014</v>
       </c>
-      <c r="B6" t="n">
-        <v>192466</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65014</v>
       </c>
-      <c r="B7" t="n">
-        <v>192467</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" t="s">
-        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65014</v>
       </c>
-      <c r="B8" t="n">
-        <v>192468</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65014</v>
       </c>
-      <c r="B9" t="n">
-        <v>192469</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65014</v>
       </c>
-      <c r="B10" t="n">
-        <v>192470</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65014</v>
       </c>
-      <c r="B11" t="n">
-        <v>192471</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65014</v>
       </c>
-      <c r="B12" t="n">
-        <v>192472</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65014</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
